--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ronnie\GitHub\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{255AE3D2-D7CD-4412-B6DB-33B0C7EA16A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{210C9958-C44C-4B4A-ACED-B263E1C48937}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{E9B6DE87-D9FC-4AA8-89C0-E7D690E87790}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Nombre cientifico</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Nombre Cientifico</t>
   </si>
   <si>
-    <t>Afeccion</t>
-  </si>
-  <si>
     <t>Causa</t>
   </si>
   <si>
@@ -71,6 +68,22 @@
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>borey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicacion de dosis
+</t>
+  </si>
+  <si>
+    <t>Tratamientos</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>ruta</t>
   </si>
 </sst>
 </file>
@@ -100,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -124,9 +137,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -136,11 +177,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +510,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F98452-F482-4032-AFD5-536064986511}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,77 +555,108 @@
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="10" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="O1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>21</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+      <c r="O3" s="1">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -587,10 +668,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -602,10 +684,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -617,10 +700,11 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -632,10 +716,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -647,10 +732,11 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -662,10 +748,11 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -677,10 +764,11 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -692,10 +780,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -707,10 +796,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -722,10 +812,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -737,10 +828,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -752,10 +844,11 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -767,10 +860,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -782,10 +876,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -797,10 +892,11 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -812,10 +908,11 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -827,13 +924,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ronnie\GitHub\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{210C9958-C44C-4B4A-ACED-B263E1C48937}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF164BE0-D576-431F-8FED-11B188B04B21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{E9B6DE87-D9FC-4AA8-89C0-E7D690E87790}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>ruta</t>
+    <t xml:space="preserve">ruta </t>
   </si>
 </sst>
 </file>

--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ronnie\GitHub\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF164BE0-D576-431F-8FED-11B188B04B21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8ED0B914-E428-4E0C-8560-4B3EA5BC5D16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{E9B6DE87-D9FC-4AA8-89C0-E7D690E87790}"/>
   </bookViews>
   <sheets>
-    <sheet name="Informción del cultivo" sheetId="1" r:id="rId1"/>
+    <sheet name="Información del cultivo" sheetId="1" r:id="rId1"/>
     <sheet name="Afeccion-Enfermedad" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -70,9 +70,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>borey</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplicacion de dosis
 </t>
   </si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">ruta </t>
+  </si>
+  <si>
+    <t>prolude</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F98452-F482-4032-AFD5-536064986511}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -578,7 +578,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
       <c r="O1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>11</v>
@@ -634,7 +634,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">

--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ronnie\GitHub\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{255AE3D2-D7CD-4412-B6DB-33B0C7EA16A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C4FC8C-50D1-409C-AAB0-847407673201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{E9B6DE87-D9FC-4AA8-89C0-E7D690E87790}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{E9B6DE87-D9FC-4AA8-89C0-E7D690E87790}"/>
   </bookViews>
   <sheets>
     <sheet name="Informción del cultivo" sheetId="1" r:id="rId1"/>
     <sheet name="Afeccion-Enfermedad" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Nombre cientifico</t>
   </si>
@@ -71,6 +76,12 @@
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>Cofetos</t>
+  </si>
+  <si>
+    <t>EL café tiene su origen en África – Etiopia luego paso a Europa y después de algunos siglos llego al continente americano. Al Ecuador el café llego en los años 1800 y desde entonces ha tenido importantes aportaciones como fuente de empleo y de divisas al país El café se siembra y se cosecha en el litoral ecuatoriano y parte del oriente, la provincia de Manabí fue uno de preponderante del cultivo del Café, a partir del año 1860 ya se cultivaba el producto en este sector</t>
   </si>
 </sst>
 </file>
@@ -136,12 +147,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A91804-A349-4ACC-A050-F104E9D5717E}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,23 +488,114 @@
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -492,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F98452-F482-4032-AFD5-536064986511}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
